--- a/data/trans_orig/P1415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>19960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11615</v>
+        <v>11782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29994</v>
+        <v>31487</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02047976868451233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01191707305929521</v>
+        <v>0.01208849002847438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03077446683619955</v>
+        <v>0.03230597108774655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -763,19 +763,19 @@
         <v>17586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10384</v>
+        <v>10342</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28680</v>
+        <v>28621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01314513957539462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00776167228001124</v>
+        <v>0.007730685770098659</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02143855328928778</v>
+        <v>0.02139410936747609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -784,19 +784,19 @@
         <v>37546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26604</v>
+        <v>25428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52187</v>
+        <v>51148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01623652632086124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0115048326258391</v>
+        <v>0.01099598081900465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02256776965758964</v>
+        <v>0.02211876877613131</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>954683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>944649</v>
+        <v>943156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>963028</v>
+        <v>962861</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9795202313154877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9692255331638004</v>
+        <v>0.9676940289122535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9880829269407048</v>
+        <v>0.9879115099715257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1231</v>
@@ -834,19 +834,19 @@
         <v>1320211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1309117</v>
+        <v>1309176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1327413</v>
+        <v>1327455</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9868548604246054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9785614467107122</v>
+        <v>0.9786058906325239</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9922383277199887</v>
+        <v>0.9922693142299013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2121</v>
@@ -855,19 +855,19 @@
         <v>2274894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2260253</v>
+        <v>2261292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2285836</v>
+        <v>2287012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9837634736791387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9774322303424103</v>
+        <v>0.9778812312238687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.988495167374161</v>
+        <v>0.9890040191809953</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>28076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18351</v>
+        <v>19682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40720</v>
+        <v>42700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01429585640672509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00934398333000268</v>
+        <v>0.01002143385860306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0207337743451048</v>
+        <v>0.02174160793841458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -980,19 +980,19 @@
         <v>13528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6950</v>
+        <v>7917</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22543</v>
+        <v>23331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00771000010555276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003961101308952619</v>
+        <v>0.004512428378663762</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01284795350172247</v>
+        <v>0.01329702449200774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -1001,19 +1001,19 @@
         <v>41604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29310</v>
+        <v>30049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56550</v>
+        <v>57374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01118832990715052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007882240490061504</v>
+        <v>0.008080968771331517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01520753546373009</v>
+        <v>0.01542907846006031</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1935881</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1923237</v>
+        <v>1921257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1945606</v>
+        <v>1944275</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.985704143593275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9792662256548949</v>
+        <v>0.9782583920615854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906560166699969</v>
+        <v>0.9899785661413966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1620</v>
@@ -1051,19 +1051,19 @@
         <v>1741064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1732049</v>
+        <v>1731261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1747642</v>
+        <v>1746675</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9922899998944472</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9871520464982775</v>
+        <v>0.9867029755079924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9960388986910473</v>
+        <v>0.9954875716213362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3450</v>
@@ -1072,19 +1072,19 @@
         <v>3676945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3661999</v>
+        <v>3661175</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3689239</v>
+        <v>3688500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9888116700928495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9847924645362696</v>
+        <v>0.9845709215399396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9921177595099384</v>
+        <v>0.9919190312286685</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>8933</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3250</v>
+        <v>3333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19740</v>
+        <v>20276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01856542293653209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006754088582805305</v>
+        <v>0.006927163853804454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04102420365119739</v>
+        <v>0.04213899322782445</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>6015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2071</v>
+        <v>2093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11841</v>
+        <v>12202</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01311588284607686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004515425890554018</v>
+        <v>0.0045636836917337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02581720464828526</v>
+        <v>0.02660432031204857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1218,19 +1218,19 @@
         <v>14949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7756</v>
+        <v>7860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25431</v>
+        <v>26039</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01590603243949118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008253092643969822</v>
+        <v>0.008363249123514662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02705911935159208</v>
+        <v>0.02770687078803798</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>472248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461441</v>
+        <v>460905</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477931</v>
+        <v>477848</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814345770634679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9589757963488019</v>
+        <v>0.9578610067721743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9932459114171946</v>
+        <v>0.9930728361461952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -1268,19 +1268,19 @@
         <v>452616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446790</v>
+        <v>446429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456560</v>
+        <v>456538</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9868841171539231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9741827953517146</v>
+        <v>0.9733956796879515</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.995484574109446</v>
+        <v>0.9954363163082663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -1289,19 +1289,19 @@
         <v>924864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>914382</v>
+        <v>913774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932057</v>
+        <v>931953</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840939675605088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.972940880648408</v>
+        <v>0.9722931292119622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9917469073560303</v>
+        <v>0.9916367508764854</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>56970</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41982</v>
+        <v>41872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74970</v>
+        <v>74382</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01665903142388643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01227610464407031</v>
+        <v>0.01224397689950472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02192249754058836</v>
+        <v>0.02175047136951705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1414,19 +1414,19 @@
         <v>37129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25151</v>
+        <v>26582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51046</v>
+        <v>51529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01045580769531222</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007082855172205122</v>
+        <v>0.007485824774726456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0143750332892947</v>
+        <v>0.01451114731868088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1435,19 +1435,19 @@
         <v>94099</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75543</v>
+        <v>77082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116316</v>
+        <v>117405</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01349902617519046</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0108370120463212</v>
+        <v>0.0110578429751473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01668623168295894</v>
+        <v>0.01684240654241824</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3362812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3344812</v>
+        <v>3345400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3377800</v>
+        <v>3377910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833409685761135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9780775024594116</v>
+        <v>0.9782495286304831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9877238953559296</v>
+        <v>0.9877560231004953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3257</v>
@@ -1485,19 +1485,19 @@
         <v>3513891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3499974</v>
+        <v>3499491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3525869</v>
+        <v>3524438</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9895441923046878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9856249667107053</v>
+        <v>0.985488852681319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9929171448277949</v>
+        <v>0.9925141752252735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6409</v>
@@ -1506,19 +1506,19 @@
         <v>6876702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6854485</v>
+        <v>6853396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6895258</v>
+        <v>6893719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865009738248095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9833137683170411</v>
+        <v>0.9831575934575818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9891629879536787</v>
+        <v>0.9889421570248527</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>8961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4353</v>
+        <v>4459</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16940</v>
+        <v>15516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01187966266915039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005770199239026679</v>
+        <v>0.005910957323855334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02245610275774161</v>
+        <v>0.02056873999297761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -1870,19 +1870,19 @@
         <v>20005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11528</v>
+        <v>11228</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31099</v>
+        <v>30692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02011249150093823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01158965632256593</v>
+        <v>0.0112885838841273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03126595374295234</v>
+        <v>0.03085684025648168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -1891,19 +1891,19 @@
         <v>28966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19364</v>
+        <v>19617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42765</v>
+        <v>42473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01656167204910318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01107156930373843</v>
+        <v>0.01121626535089765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02445089616223873</v>
+        <v>0.02428426010968599</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>745386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>737407</v>
+        <v>738831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749994</v>
+        <v>749888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9881203373308496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9775438972422585</v>
+        <v>0.9794312600070226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9942298007609733</v>
+        <v>0.9940890426761447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>875</v>
@@ -1941,19 +1941,19 @@
         <v>974655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>963561</v>
+        <v>963968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>983132</v>
+        <v>983432</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9798875084990618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9687340462570478</v>
+        <v>0.9691431597435186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9884103436774343</v>
+        <v>0.9887114161158728</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1627</v>
@@ -1962,19 +1962,19 @@
         <v>1720041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1706242</v>
+        <v>1706534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1729643</v>
+        <v>1729390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9834383279508968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9755491038377609</v>
+        <v>0.975715739890314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9889284306962616</v>
+        <v>0.9887837346491023</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>20817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13013</v>
+        <v>12268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32575</v>
+        <v>31595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01002538094198445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006267083321256411</v>
+        <v>0.005908198236459289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01568817630089848</v>
+        <v>0.01521620988186904</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2087,19 +2087,19 @@
         <v>31494</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21153</v>
+        <v>20503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44466</v>
+        <v>44149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01583944166885335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0106385681623356</v>
+        <v>0.01031179907991358</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02236393478767927</v>
+        <v>0.02220443167248559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -2108,19 +2108,19 @@
         <v>52310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38145</v>
+        <v>39387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67676</v>
+        <v>69833</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01286941368593408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009384599219172712</v>
+        <v>0.009689972114563053</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01664971970678402</v>
+        <v>0.01718053480624168</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2055568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2043810</v>
+        <v>2044790</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2063372</v>
+        <v>2064117</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9899746190580155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9843118236991015</v>
+        <v>0.9847837901181309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937329166787436</v>
+        <v>0.9940918017635407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1877</v>
@@ -2158,19 +2158,19 @@
         <v>1956806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1943834</v>
+        <v>1944151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1967147</v>
+        <v>1967797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9841605583311467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9776360652123207</v>
+        <v>0.9777955683275146</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893614318376643</v>
+        <v>0.9896882009200864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3809</v>
@@ -2179,19 +2179,19 @@
         <v>4012375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3997009</v>
+        <v>3994852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4026540</v>
+        <v>4025298</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9871305863140659</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.983350280293216</v>
+        <v>0.9828194651937585</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906154007808272</v>
+        <v>0.990310027885437</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>5683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1912</v>
+        <v>2206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12770</v>
+        <v>12821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01039093942541438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003496636782154968</v>
+        <v>0.004034587471519854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02334971798273599</v>
+        <v>0.02344350585108819</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2304,19 +2304,19 @@
         <v>4944</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1911</v>
+        <v>1955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10800</v>
+        <v>10854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009003276058656659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003479881585770742</v>
+        <v>0.003560173316445229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01966801402066076</v>
+        <v>0.01976537348932244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -2325,19 +2325,19 @@
         <v>10627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5517</v>
+        <v>5570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19060</v>
+        <v>19403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009695680773000944</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005034043193160189</v>
+        <v>0.005082235422194325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01739028096217846</v>
+        <v>0.01770343646048757</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>541203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534116</v>
+        <v>534065</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544974</v>
+        <v>544680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9896090605745856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9766502820172641</v>
+        <v>0.976556494148912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965033632178451</v>
+        <v>0.9959654125284803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>521</v>
@@ -2375,19 +2375,19 @@
         <v>544196</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538340</v>
+        <v>538286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>547229</v>
+        <v>547185</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9909967239413433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9803319859793397</v>
+        <v>0.9802346265106776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9965201184142293</v>
+        <v>0.9964398266835548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1017</v>
@@ -2396,19 +2396,19 @@
         <v>1085400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1076967</v>
+        <v>1076624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090510</v>
+        <v>1090457</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.990304319226999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9826097190378213</v>
+        <v>0.9822965635395123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9949659568068397</v>
+        <v>0.9949177645778056</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>35461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26003</v>
+        <v>25531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49351</v>
+        <v>48682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01049869983349156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007698740325374148</v>
+        <v>0.007558968765043492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01461123104156781</v>
+        <v>0.01441324315836405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -2521,19 +2521,19 @@
         <v>56443</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42990</v>
+        <v>42728</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73683</v>
+        <v>72761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01597992972683331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01217114488481254</v>
+        <v>0.0120969727924941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02086105893513145</v>
+        <v>0.0205998845477221</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -2542,19 +2542,19 @@
         <v>91903</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74016</v>
+        <v>74621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113636</v>
+        <v>111716</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01330058752872485</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01071188106819775</v>
+        <v>0.01079944128240267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01644587426110534</v>
+        <v>0.01616794315720152</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3342157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3328267</v>
+        <v>3328936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3351615</v>
+        <v>3352087</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9895013001665084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9853887689584321</v>
+        <v>0.9855867568416362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923012596746258</v>
+        <v>0.9924410312349565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3273</v>
@@ -2592,19 +2592,19 @@
         <v>3475657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3458417</v>
+        <v>3459339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3489110</v>
+        <v>3489372</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9840200702731667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9791389410648685</v>
+        <v>0.9794001154522779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9878288551151874</v>
+        <v>0.9879030272075059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6453</v>
@@ -2613,19 +2613,19 @@
         <v>6817815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6796082</v>
+        <v>6798002</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6835702</v>
+        <v>6835097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9866994124712751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9835541257388943</v>
+        <v>0.9838320568427986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9892881189318021</v>
+        <v>0.9892005587175974</v>
       </c>
     </row>
     <row r="15">
